--- a/data/pca/factorExposure/factorExposure_2012-11-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-02.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001522001473661618</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002041978736493476</v>
+      </c>
+      <c r="C2">
+        <v>-0.02999769436883348</v>
+      </c>
+      <c r="D2">
+        <v>0.006266804432556694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001299618778116882</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006916257696631068</v>
+      </c>
+      <c r="C4">
+        <v>-0.08324550129223485</v>
+      </c>
+      <c r="D4">
+        <v>0.07532135002575703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.00127983748092313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01374793015619064</v>
+      </c>
+      <c r="C6">
+        <v>-0.1133726706670784</v>
+      </c>
+      <c r="D6">
+        <v>0.02358434236945195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002056944106257438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.00476799548015195</v>
+      </c>
+      <c r="C7">
+        <v>-0.05796226471453652</v>
+      </c>
+      <c r="D7">
+        <v>0.03172798824140196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-4.524012018053577e-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005854913466734777</v>
+      </c>
+      <c r="C8">
+        <v>-0.03614736792149756</v>
+      </c>
+      <c r="D8">
+        <v>0.03995436507563616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003790638181572491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005098504215541737</v>
+      </c>
+      <c r="C9">
+        <v>-0.07129981562109397</v>
+      </c>
+      <c r="D9">
+        <v>0.07484774858877946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.002125695438660309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.006224568039214337</v>
+      </c>
+      <c r="C10">
+        <v>-0.05735409456898142</v>
+      </c>
+      <c r="D10">
+        <v>-0.1956570920628453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.004595713112039475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005560721693340798</v>
+      </c>
+      <c r="C11">
+        <v>-0.07997809775645616</v>
+      </c>
+      <c r="D11">
+        <v>0.06365426070578771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.00169270223086148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003980807499180629</v>
+      </c>
+      <c r="C12">
+        <v>-0.06433742045586253</v>
+      </c>
+      <c r="D12">
+        <v>0.05023429994064855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.001823108640706478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009002640374860767</v>
+      </c>
+      <c r="C13">
+        <v>-0.0695657807970083</v>
+      </c>
+      <c r="D13">
+        <v>0.05561710598847543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.002373107653228702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001035191516756273</v>
+      </c>
+      <c r="C14">
+        <v>-0.04383090736543547</v>
+      </c>
+      <c r="D14">
+        <v>0.006455432945685975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.000899785655336028</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005952025331801393</v>
+      </c>
+      <c r="C15">
+        <v>-0.04118893359612059</v>
+      </c>
+      <c r="D15">
+        <v>0.02876290798089779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.002469917451151401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004958097462342769</v>
+      </c>
+      <c r="C16">
+        <v>-0.06431916593407898</v>
+      </c>
+      <c r="D16">
+        <v>0.05511893795997771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0004636949479965484</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008803386172268069</v>
+      </c>
+      <c r="C20">
+        <v>-0.06529707831046883</v>
+      </c>
+      <c r="D20">
+        <v>0.0465711929575132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005816301072322351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009865910764043128</v>
+      </c>
+      <c r="C21">
+        <v>-0.02140465597674965</v>
+      </c>
+      <c r="D21">
+        <v>0.03967753852568856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01714225984958334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006353607303199266</v>
+      </c>
+      <c r="C22">
+        <v>-0.09188529584597335</v>
+      </c>
+      <c r="D22">
+        <v>0.1191590614673694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01739777965860499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006168370707855276</v>
+      </c>
+      <c r="C23">
+        <v>-0.09233483375585691</v>
+      </c>
+      <c r="D23">
+        <v>0.1202164666314181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.003698532302590566</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.00544079777920846</v>
+      </c>
+      <c r="C24">
+        <v>-0.07582726571120665</v>
+      </c>
+      <c r="D24">
+        <v>0.06747797323298756</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005913704207080301</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003191906295287878</v>
+      </c>
+      <c r="C25">
+        <v>-0.07830957350761678</v>
+      </c>
+      <c r="D25">
+        <v>0.06526622014364179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.00399672179590103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003563575879747371</v>
+      </c>
+      <c r="C26">
+        <v>-0.03889931846717783</v>
+      </c>
+      <c r="D26">
+        <v>0.02423196493755504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.007545203908381552</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0007199111228332535</v>
+      </c>
+      <c r="C28">
+        <v>-0.1049128231802148</v>
+      </c>
+      <c r="D28">
+        <v>-0.3240681859992725</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001337219409440091</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002762685341613761</v>
+      </c>
+      <c r="C29">
+        <v>-0.04947608349407095</v>
+      </c>
+      <c r="D29">
+        <v>0.007209842170364093</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005261131419567563</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.01007854395269426</v>
+      </c>
+      <c r="C30">
+        <v>-0.142412019394151</v>
+      </c>
+      <c r="D30">
+        <v>0.1071165101067731</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0004588193492946308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006296324811759776</v>
+      </c>
+      <c r="C31">
+        <v>-0.04386326079793774</v>
+      </c>
+      <c r="D31">
+        <v>0.02968607083074216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.000910321657534944</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.00370271145391179</v>
+      </c>
+      <c r="C32">
+        <v>-0.04020739226654357</v>
+      </c>
+      <c r="D32">
+        <v>0.02641689436695046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003686663688233446</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008633077557765613</v>
+      </c>
+      <c r="C33">
+        <v>-0.08681485253390746</v>
+      </c>
+      <c r="D33">
+        <v>0.06678089151074479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005252038454972729</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004042885614988156</v>
+      </c>
+      <c r="C34">
+        <v>-0.05788264540552831</v>
+      </c>
+      <c r="D34">
+        <v>0.0564496944737226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0004724730701735637</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005166032543286376</v>
+      </c>
+      <c r="C35">
+        <v>-0.04088342470446614</v>
+      </c>
+      <c r="D35">
+        <v>0.01880788682717563</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004573685419587842</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001050964630422941</v>
+      </c>
+      <c r="C36">
+        <v>-0.02513152559401983</v>
+      </c>
+      <c r="D36">
+        <v>0.02359018714277216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001022351785931933</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008857863925227159</v>
+      </c>
+      <c r="C38">
+        <v>-0.03536356943844715</v>
+      </c>
+      <c r="D38">
+        <v>0.01550071766694855</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01360080061593693</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001053478637863754</v>
+      </c>
+      <c r="C39">
+        <v>-0.1147404639187602</v>
+      </c>
+      <c r="D39">
+        <v>0.0788917304608404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009480112739319256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003618667569161586</v>
+      </c>
+      <c r="C40">
+        <v>-0.09073465626306944</v>
+      </c>
+      <c r="D40">
+        <v>0.01389963674398981</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0007227451468097232</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007061105423462656</v>
+      </c>
+      <c r="C41">
+        <v>-0.03736633474950626</v>
+      </c>
+      <c r="D41">
+        <v>0.03764418494896759</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003836761911166915</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003864009187281724</v>
+      </c>
+      <c r="C43">
+        <v>-0.05269965652356102</v>
+      </c>
+      <c r="D43">
+        <v>0.02619144387250281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.01577016057746849</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003006335147438955</v>
+      </c>
+      <c r="C44">
+        <v>-0.1068784644261511</v>
+      </c>
+      <c r="D44">
+        <v>0.066668615686842</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.000860490843778842</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002174196111698739</v>
+      </c>
+      <c r="C46">
+        <v>-0.03322402982837985</v>
+      </c>
+      <c r="D46">
+        <v>0.03218332162206854</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002015635890995222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002282132077253486</v>
+      </c>
+      <c r="C47">
+        <v>-0.03664003631580554</v>
+      </c>
+      <c r="D47">
+        <v>0.01950764973842891</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.004008666970318337</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006762938389110765</v>
+      </c>
+      <c r="C48">
+        <v>-0.03056503832568564</v>
+      </c>
+      <c r="D48">
+        <v>0.03514391094988043</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.0129257329829754</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01672262606832904</v>
+      </c>
+      <c r="C49">
+        <v>-0.1866146721068879</v>
+      </c>
+      <c r="D49">
+        <v>0.01459548642893383</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.002124036975120961</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003650716938092635</v>
+      </c>
+      <c r="C50">
+        <v>-0.0431443692614613</v>
+      </c>
+      <c r="D50">
+        <v>0.03663382028838894</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>4.792292989158136e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004772999814894627</v>
+      </c>
+      <c r="C51">
+        <v>-0.02534474401777012</v>
+      </c>
+      <c r="D51">
+        <v>0.02163689687481472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001068358362387548</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02110978704545216</v>
+      </c>
+      <c r="C53">
+        <v>-0.1699323159415615</v>
+      </c>
+      <c r="D53">
+        <v>0.02680157918539075</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001569397635590185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008813063721871569</v>
+      </c>
+      <c r="C54">
+        <v>-0.05419095155852174</v>
+      </c>
+      <c r="D54">
+        <v>0.04450573537343162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.00573069856048733</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009583468279401061</v>
+      </c>
+      <c r="C55">
+        <v>-0.1090889281112787</v>
+      </c>
+      <c r="D55">
+        <v>0.04023303554286627</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.001806182821593533</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02007558366614252</v>
+      </c>
+      <c r="C56">
+        <v>-0.1760194547037975</v>
+      </c>
+      <c r="D56">
+        <v>0.01423778414783239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009959682387688993</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.0195393168954935</v>
+      </c>
+      <c r="C58">
+        <v>-0.1091167922486701</v>
+      </c>
+      <c r="D58">
+        <v>0.06367817686486194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009577903947797235</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01033482922276217</v>
+      </c>
+      <c r="C59">
+        <v>-0.1642498016652718</v>
+      </c>
+      <c r="D59">
+        <v>-0.3344121627705325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.00582038024785787</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.0254533765966114</v>
+      </c>
+      <c r="C60">
+        <v>-0.225700864464373</v>
+      </c>
+      <c r="D60">
+        <v>0.02601022430491458</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.0153315964568629</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001815435448493791</v>
+      </c>
+      <c r="C61">
+        <v>-0.0946562166804259</v>
+      </c>
+      <c r="D61">
+        <v>0.05747523776616779</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1585507005707367</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1482974984927004</v>
+      </c>
+      <c r="C62">
+        <v>-0.09530591218654015</v>
+      </c>
+      <c r="D62">
+        <v>0.03030619276611423</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0007703232556652966</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006690826934963629</v>
+      </c>
+      <c r="C63">
+        <v>-0.05407120652169432</v>
+      </c>
+      <c r="D63">
+        <v>0.02830314174830834</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0008932838836515204</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01546385922687013</v>
+      </c>
+      <c r="C64">
+        <v>-0.103527146413509</v>
+      </c>
+      <c r="D64">
+        <v>0.06097675635152456</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001606531267713937</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01799267150168444</v>
+      </c>
+      <c r="C65">
+        <v>-0.1238934856425489</v>
+      </c>
+      <c r="D65">
+        <v>0.02105947087904295</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007965194802001561</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01320072940587927</v>
+      </c>
+      <c r="C66">
+        <v>-0.1589994134329493</v>
+      </c>
+      <c r="D66">
+        <v>0.1124672387650196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.00284601134648728</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01539529396988163</v>
+      </c>
+      <c r="C67">
+        <v>-0.06659890598976984</v>
+      </c>
+      <c r="D67">
+        <v>0.02783107864193557</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.007427594748942625</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001181416681235619</v>
+      </c>
+      <c r="C68">
+        <v>-0.08522173842626837</v>
+      </c>
+      <c r="D68">
+        <v>-0.2631409877073376</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002333415353182726</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.00609071008964216</v>
+      </c>
+      <c r="C69">
+        <v>-0.05084807902753642</v>
+      </c>
+      <c r="D69">
+        <v>0.03772817858431066</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>3.514591560281883e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001863568894043962</v>
+      </c>
+      <c r="C70">
+        <v>-0.004098027637447293</v>
+      </c>
+      <c r="D70">
+        <v>0.002335926865814325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001793483039430033</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006008379581670315</v>
+      </c>
+      <c r="C71">
+        <v>-0.09247067952071537</v>
+      </c>
+      <c r="D71">
+        <v>-0.3047378705235193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005952750513392676</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01652502864168773</v>
+      </c>
+      <c r="C72">
+        <v>-0.1529716092685994</v>
+      </c>
+      <c r="D72">
+        <v>0.0126957208762798</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01634207391756178</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03174640030867653</v>
+      </c>
+      <c r="C73">
+        <v>-0.282969589322316</v>
+      </c>
+      <c r="D73">
+        <v>0.05824384721551454</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.007354930415071412</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002076649079279792</v>
+      </c>
+      <c r="C74">
+        <v>-0.1031989262492782</v>
+      </c>
+      <c r="D74">
+        <v>0.0360031677406563</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004677207474450564</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01120749442786054</v>
+      </c>
+      <c r="C75">
+        <v>-0.1224343682365723</v>
+      </c>
+      <c r="D75">
+        <v>0.02215601004926224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.0051677073835744</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.0226183521748928</v>
+      </c>
+      <c r="C76">
+        <v>-0.1487812123087029</v>
+      </c>
+      <c r="D76">
+        <v>0.0546907284981618</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.002673606875891079</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02254103799367711</v>
+      </c>
+      <c r="C77">
+        <v>-0.1155360492983894</v>
+      </c>
+      <c r="D77">
+        <v>0.06006439975322747</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0002252069783484355</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.0150480445748444</v>
+      </c>
+      <c r="C78">
+        <v>-0.09654631312070618</v>
+      </c>
+      <c r="D78">
+        <v>0.07551370172816388</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02118443344920555</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03822853294197631</v>
+      </c>
+      <c r="C79">
+        <v>-0.1568947018900023</v>
+      </c>
+      <c r="D79">
+        <v>0.03104830726957703</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.005459546613622837</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01018200284133531</v>
+      </c>
+      <c r="C80">
+        <v>-0.03972817439037846</v>
+      </c>
+      <c r="D80">
+        <v>0.03057955879341321</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0007145989561640216</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.0157721480998219</v>
+      </c>
+      <c r="C81">
+        <v>-0.1297598942341781</v>
+      </c>
+      <c r="D81">
+        <v>0.03726435916526197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.001847154477700149</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02015513141254938</v>
+      </c>
+      <c r="C82">
+        <v>-0.1388493420724588</v>
+      </c>
+      <c r="D82">
+        <v>0.04159669922297921</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.006155573522202677</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01058214419059498</v>
+      </c>
+      <c r="C83">
+        <v>-0.0593002374287327</v>
+      </c>
+      <c r="D83">
+        <v>0.04798058969017511</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01251943504895857</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01154686801214693</v>
+      </c>
+      <c r="C84">
+        <v>-0.03712506735050719</v>
+      </c>
+      <c r="D84">
+        <v>-0.002647168137691557</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01263124536728441</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02919179927717324</v>
+      </c>
+      <c r="C85">
+        <v>-0.1246503314460012</v>
+      </c>
+      <c r="D85">
+        <v>0.03966173243388059</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.002565972598357899</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004788109706695493</v>
+      </c>
+      <c r="C86">
+        <v>-0.05065173800487635</v>
+      </c>
+      <c r="D86">
+        <v>0.0328693625628136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004216167634549377</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01112761557834118</v>
+      </c>
+      <c r="C87">
+        <v>-0.1286523016558509</v>
+      </c>
+      <c r="D87">
+        <v>0.07107379493757383</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01152018139550572</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002631960020151818</v>
+      </c>
+      <c r="C88">
+        <v>-0.06354751385170393</v>
+      </c>
+      <c r="D88">
+        <v>0.02347059831514653</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01570550460368986</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001355077438042556</v>
+      </c>
+      <c r="C89">
+        <v>-0.1396033646448774</v>
+      </c>
+      <c r="D89">
+        <v>-0.3198321644859988</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.004072319947377793</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.00695626668443674</v>
+      </c>
+      <c r="C90">
+        <v>-0.1200109876645789</v>
+      </c>
+      <c r="D90">
+        <v>-0.3149583838427091</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001823459055648828</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01056746604200441</v>
+      </c>
+      <c r="C91">
+        <v>-0.1002940378908546</v>
+      </c>
+      <c r="D91">
+        <v>0.02239079462049457</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.0112382643854399</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.001329577125247836</v>
+      </c>
+      <c r="C92">
+        <v>-0.1356878961749471</v>
+      </c>
+      <c r="D92">
+        <v>-0.3245840975568323</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.002485801592099034</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005406489056329435</v>
+      </c>
+      <c r="C93">
+        <v>-0.1054169078352257</v>
+      </c>
+      <c r="D93">
+        <v>-0.3016979111779312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.0001135561650725758</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02210276682117854</v>
+      </c>
+      <c r="C94">
+        <v>-0.1453399136172532</v>
+      </c>
+      <c r="D94">
+        <v>0.04641797319154319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.003588874795099636</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01674368673488616</v>
+      </c>
+      <c r="C95">
+        <v>-0.121280063752084</v>
+      </c>
+      <c r="D95">
+        <v>0.06131624114884883</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0009565005279944973</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03672132143052252</v>
+      </c>
+      <c r="C97">
+        <v>-0.2208342012850072</v>
+      </c>
+      <c r="D97">
+        <v>-0.007412519624048133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004427237665797145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03810011599314914</v>
+      </c>
+      <c r="C98">
+        <v>-0.2533373846356742</v>
+      </c>
+      <c r="D98">
+        <v>0.04360089376789663</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.98525971357863</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9814163093974674</v>
+      </c>
+      <c r="C99">
+        <v>0.1200832279600958</v>
+      </c>
+      <c r="D99">
+        <v>-0.02371279174725491</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001256266243419423</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002802169435732656</v>
+      </c>
+      <c r="C101">
+        <v>-0.04960521870274953</v>
+      </c>
+      <c r="D101">
+        <v>0.00759267368845055</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
